--- a/www.eia.gov/electricity/monthly/xls/table_6_07_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_07_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
-  <si>
-    <t>Table 6.7.B. Capacity Factors for Utility Scale Generators Not Primarily Using Fossil Fuels, January 2013-October 2016</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+  <si>
+    <t>Table 6.7.B. Capacity Factors for Utility Scale Generators Not Primarily Using Fossil Fuels, January 2013-November 2016</t>
   </si>
   <si>
     <t>Period</t>
@@ -1003,7 +1003,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2183,18 +2183,47 @@
         <v>0.751</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2203,7 +2232,7 @@
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
